--- a/Training/Data/CleanedDatasets/Personalized.xlsx
+++ b/Training/Data/CleanedDatasets/Personalized.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akshay\Desktop\Personal AI\Training\Data\CleanedDatasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA035A5F-0FCD-4C6B-A13A-348BB5CBA604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C544F769-329A-46CC-AD68-4BEAF24BAC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3A425396-DBB9-499D-9873-DAD9BA6A2C18}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="1241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2493" uniqueCount="1245">
   <si>
     <t>Is the content on my screen visible to you?</t>
   </si>
@@ -2261,9 +2261,6 @@
     <t>action: message='sorry sir',wrong_answer,generate_new_answer</t>
   </si>
   <si>
-    <t>action: message='sorry sir. Do you want me to generate new response?',wrong_answer.</t>
-  </si>
-  <si>
     <t>The response you provided is accurate.</t>
   </si>
   <si>
@@ -2564,9 +2561,6 @@
     <t>The answer you provided is absolutely right.</t>
   </si>
   <si>
-    <t>action: message='Thanks sir.',right_answer.</t>
-  </si>
-  <si>
     <t>That is accurate.</t>
   </si>
   <si>
@@ -3759,6 +3753,24 @@
   </si>
   <si>
     <t>Could you respond to the email message from &lt;emailid&gt; at your earliest?</t>
+  </si>
+  <si>
+    <t>action: message='sorry sir. Do you want me to generate new response?',wrong_answer</t>
+  </si>
+  <si>
+    <t>action: message='Thanks sir.',right_answer</t>
+  </si>
+  <si>
+    <t>action: message='Sure sir. What kind of email would you like to write?',draft_email</t>
+  </si>
+  <si>
+    <t>action: message='Sure sir. What kind of email would you like to write? Let me know the context, the recipient, and the message you want to convey, and I can help you draft it.',draft_email</t>
+  </si>
+  <si>
+    <t>action: message='Sure sir. What kind of email would you like to write? Let me know the context and the message you want to convey.',send_email</t>
+  </si>
+  <si>
+    <t>action: message='Sure sir. Please confirm the email',send_email</t>
   </si>
 </sst>
 </file>
@@ -4149,10 +4161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348C4428-4BDA-4124-8726-6A034C9B4BA9}">
-  <dimension ref="A1:B1248"/>
+  <dimension ref="A1:C1246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1239" workbookViewId="0">
-      <selection activeCell="A1261" sqref="A1261"/>
+    <sheetView tabSelected="1" topLeftCell="A1225" workbookViewId="0">
+      <selection activeCell="A1241" sqref="A1241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9334,7 +9346,7 @@
         <v>540</v>
       </c>
       <c r="B647" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
@@ -9342,7 +9354,7 @@
         <v>541</v>
       </c>
       <c r="B648" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
@@ -9350,7 +9362,7 @@
         <v>542</v>
       </c>
       <c r="B649" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
@@ -9358,7 +9370,7 @@
         <v>543</v>
       </c>
       <c r="B650" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
@@ -9366,7 +9378,7 @@
         <v>544</v>
       </c>
       <c r="B651" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
@@ -9374,7 +9386,7 @@
         <v>545</v>
       </c>
       <c r="B652" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
@@ -9382,7 +9394,7 @@
         <v>546</v>
       </c>
       <c r="B653" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
@@ -9390,7 +9402,7 @@
         <v>547</v>
       </c>
       <c r="B654" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
@@ -9398,7 +9410,7 @@
         <v>548</v>
       </c>
       <c r="B655" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
@@ -9406,7 +9418,7 @@
         <v>549</v>
       </c>
       <c r="B656" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
@@ -9414,7 +9426,7 @@
         <v>550</v>
       </c>
       <c r="B657" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
@@ -9422,7 +9434,7 @@
         <v>551</v>
       </c>
       <c r="B658" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
@@ -9430,7 +9442,7 @@
         <v>552</v>
       </c>
       <c r="B659" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
@@ -9438,7 +9450,7 @@
         <v>553</v>
       </c>
       <c r="B660" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
@@ -9446,7 +9458,7 @@
         <v>554</v>
       </c>
       <c r="B661" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
@@ -9454,7 +9466,7 @@
         <v>555</v>
       </c>
       <c r="B662" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
@@ -9462,7 +9474,7 @@
         <v>556</v>
       </c>
       <c r="B663" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
@@ -9470,7 +9482,7 @@
         <v>557</v>
       </c>
       <c r="B664" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
@@ -9478,7 +9490,7 @@
         <v>558</v>
       </c>
       <c r="B665" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
@@ -9486,7 +9498,7 @@
         <v>559</v>
       </c>
       <c r="B666" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
@@ -9494,7 +9506,7 @@
         <v>560</v>
       </c>
       <c r="B667" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
@@ -9502,7 +9514,7 @@
         <v>561</v>
       </c>
       <c r="B668" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
@@ -9510,7 +9522,7 @@
         <v>562</v>
       </c>
       <c r="B669" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
@@ -9518,7 +9530,7 @@
         <v>563</v>
       </c>
       <c r="B670" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
@@ -9526,7 +9538,7 @@
         <v>564</v>
       </c>
       <c r="B671" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
@@ -9534,7 +9546,7 @@
         <v>565</v>
       </c>
       <c r="B672" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
@@ -9542,7 +9554,7 @@
         <v>566</v>
       </c>
       <c r="B673" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
@@ -9550,7 +9562,7 @@
         <v>567</v>
       </c>
       <c r="B674" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
@@ -9558,7 +9570,7 @@
         <v>568</v>
       </c>
       <c r="B675" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
@@ -9566,7 +9578,7 @@
         <v>569</v>
       </c>
       <c r="B676" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
@@ -9574,7 +9586,7 @@
         <v>570</v>
       </c>
       <c r="B677" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
@@ -9582,7 +9594,7 @@
         <v>571</v>
       </c>
       <c r="B678" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
@@ -9590,7 +9602,7 @@
         <v>572</v>
       </c>
       <c r="B679" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
@@ -9598,7 +9610,7 @@
         <v>573</v>
       </c>
       <c r="B680" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
@@ -9606,7 +9618,7 @@
         <v>574</v>
       </c>
       <c r="B681" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
@@ -9614,7 +9626,7 @@
         <v>575</v>
       </c>
       <c r="B682" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
@@ -9622,7 +9634,7 @@
         <v>576</v>
       </c>
       <c r="B683" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
@@ -9630,7 +9642,7 @@
         <v>577</v>
       </c>
       <c r="B684" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
@@ -9638,7 +9650,7 @@
         <v>578</v>
       </c>
       <c r="B685" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
@@ -9646,7 +9658,7 @@
         <v>579</v>
       </c>
       <c r="B686" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
@@ -9654,7 +9666,7 @@
         <v>580</v>
       </c>
       <c r="B687" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
@@ -9662,7 +9674,7 @@
         <v>581</v>
       </c>
       <c r="B688" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
@@ -9670,7 +9682,7 @@
         <v>582</v>
       </c>
       <c r="B689" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
@@ -9678,7 +9690,7 @@
         <v>583</v>
       </c>
       <c r="B690" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
@@ -9686,7 +9698,7 @@
         <v>584</v>
       </c>
       <c r="B691" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
@@ -9694,7 +9706,7 @@
         <v>585</v>
       </c>
       <c r="B692" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
@@ -9702,7 +9714,7 @@
         <v>586</v>
       </c>
       <c r="B693" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
@@ -9710,7 +9722,7 @@
         <v>587</v>
       </c>
       <c r="B694" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
@@ -9718,7 +9730,7 @@
         <v>588</v>
       </c>
       <c r="B695" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
@@ -9726,7 +9738,7 @@
         <v>589</v>
       </c>
       <c r="B696" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
@@ -9734,7 +9746,7 @@
         <v>590</v>
       </c>
       <c r="B697" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
@@ -9742,7 +9754,7 @@
         <v>591</v>
       </c>
       <c r="B698" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
@@ -9750,7 +9762,7 @@
         <v>592</v>
       </c>
       <c r="B699" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
@@ -9758,7 +9770,7 @@
         <v>593</v>
       </c>
       <c r="B700" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
@@ -9766,7 +9778,7 @@
         <v>594</v>
       </c>
       <c r="B701" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
@@ -9774,7 +9786,7 @@
         <v>595</v>
       </c>
       <c r="B702" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
@@ -9782,7 +9794,7 @@
         <v>596</v>
       </c>
       <c r="B703" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
@@ -9790,7 +9802,7 @@
         <v>597</v>
       </c>
       <c r="B704" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
@@ -9798,7 +9810,7 @@
         <v>598</v>
       </c>
       <c r="B705" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
@@ -9806,7 +9818,7 @@
         <v>599</v>
       </c>
       <c r="B706" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
@@ -9814,7 +9826,7 @@
         <v>600</v>
       </c>
       <c r="B707" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
@@ -9822,7 +9834,7 @@
         <v>601</v>
       </c>
       <c r="B708" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
@@ -9830,7 +9842,7 @@
         <v>602</v>
       </c>
       <c r="B709" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
@@ -9838,7 +9850,7 @@
         <v>603</v>
       </c>
       <c r="B710" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
@@ -9846,7 +9858,7 @@
         <v>604</v>
       </c>
       <c r="B711" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
@@ -9854,7 +9866,7 @@
         <v>605</v>
       </c>
       <c r="B712" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
@@ -9862,7 +9874,7 @@
         <v>606</v>
       </c>
       <c r="B713" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
@@ -9870,7 +9882,7 @@
         <v>607</v>
       </c>
       <c r="B714" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
@@ -9878,7 +9890,7 @@
         <v>608</v>
       </c>
       <c r="B715" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
@@ -9886,7 +9898,7 @@
         <v>609</v>
       </c>
       <c r="B716" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
@@ -9894,7 +9906,7 @@
         <v>610</v>
       </c>
       <c r="B717" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
@@ -9902,7 +9914,7 @@
         <v>611</v>
       </c>
       <c r="B718" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
@@ -9910,7 +9922,7 @@
         <v>612</v>
       </c>
       <c r="B719" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
@@ -9918,7 +9930,7 @@
         <v>613</v>
       </c>
       <c r="B720" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
@@ -9926,7 +9938,7 @@
         <v>614</v>
       </c>
       <c r="B721" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
@@ -9934,7 +9946,7 @@
         <v>615</v>
       </c>
       <c r="B722" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
@@ -9942,7 +9954,7 @@
         <v>616</v>
       </c>
       <c r="B723" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
@@ -9950,7 +9962,7 @@
         <v>617</v>
       </c>
       <c r="B724" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
@@ -9958,7 +9970,7 @@
         <v>618</v>
       </c>
       <c r="B725" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
@@ -9966,7 +9978,7 @@
         <v>619</v>
       </c>
       <c r="B726" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
@@ -9974,7 +9986,7 @@
         <v>620</v>
       </c>
       <c r="B727" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
@@ -9982,7 +9994,7 @@
         <v>621</v>
       </c>
       <c r="B728" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
@@ -9990,7 +10002,7 @@
         <v>622</v>
       </c>
       <c r="B729" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
@@ -9998,7 +10010,7 @@
         <v>623</v>
       </c>
       <c r="B730" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
@@ -10006,7 +10018,7 @@
         <v>624</v>
       </c>
       <c r="B731" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
@@ -10014,7 +10026,7 @@
         <v>625</v>
       </c>
       <c r="B732" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.25">
@@ -10022,7 +10034,7 @@
         <v>626</v>
       </c>
       <c r="B733" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.25">
@@ -10030,7 +10042,7 @@
         <v>627</v>
       </c>
       <c r="B734" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.25">
@@ -10038,7 +10050,7 @@
         <v>628</v>
       </c>
       <c r="B735" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.25">
@@ -10046,7 +10058,7 @@
         <v>629</v>
       </c>
       <c r="B736" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
@@ -10054,7 +10066,7 @@
         <v>630</v>
       </c>
       <c r="B737" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.25">
@@ -10062,7 +10074,7 @@
         <v>631</v>
       </c>
       <c r="B738" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.25">
@@ -10070,7 +10082,7 @@
         <v>632</v>
       </c>
       <c r="B739" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.25">
@@ -10078,7 +10090,7 @@
         <v>633</v>
       </c>
       <c r="B740" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
@@ -10086,7 +10098,7 @@
         <v>634</v>
       </c>
       <c r="B741" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.25">
@@ -10094,7 +10106,7 @@
         <v>635</v>
       </c>
       <c r="B742" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.25">
@@ -10102,7 +10114,7 @@
         <v>636</v>
       </c>
       <c r="B743" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.25">
@@ -10110,7 +10122,7 @@
         <v>637</v>
       </c>
       <c r="B744" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
@@ -10118,7 +10130,7 @@
         <v>638</v>
       </c>
       <c r="B745" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.25">
@@ -10126,3107 +10138,4010 @@
         <v>639</v>
       </c>
       <c r="B746" t="s">
-        <v>741</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B747" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B748" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B749" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B750" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B751" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B752" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B753" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B754" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B755" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B756" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B757" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B758" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B759" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B760" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B761" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B762" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B763" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B764" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B765" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B766" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B767" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B768" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B769" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B770" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B771" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B772" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B773" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B774" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B775" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B776" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B777" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B778" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B779" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B780" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B781" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B782" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B783" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B784" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B785" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B786" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B787" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B788" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B789" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B790" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B791" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B792" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B793" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B794" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B795" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B796" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B797" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B798" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B799" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B800" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B801" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B802" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B803" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B804" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B805" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B806" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B807" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B808" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B809" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B810" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B811" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B812" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B813" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B814" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B815" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B816" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B817" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B818" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B819" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B820" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B821" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B822" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B823" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B824" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B825" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B826" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B827" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B828" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B829" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B830" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B831" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B832" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B833" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B834" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B835" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B836" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B837" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B838" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B839" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B840" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B841" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B842" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B843" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B844" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B845" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B846" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B847" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B848" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B849" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B850" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B851" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B852" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B853" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B854" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B855" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B856" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B857" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B858" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B859" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B860" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B861" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B862" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B863" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B864" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B865" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B866" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B867" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B868" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B869" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B870" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B871" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B872" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B873" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B874" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B875" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B876" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B877" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B878" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B879" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B880" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B881" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B882" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B883" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B884" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B885" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B886" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B887" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B888" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B889" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B890" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B891" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B892" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B893" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B894" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B895" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B896" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B897" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B898" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B899" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B900" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B901" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B902" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B903" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B904" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B905" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B906" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B907" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B908" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B909" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B910" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B911" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B912" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B913" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B914" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B915" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B916" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B917" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B918" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B919" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B920" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B921" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B922" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B923" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B924" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B925" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B926" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B927" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B928" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B929" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B930" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B931" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="B932" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B933" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B934" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B935" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B936" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B937" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B938" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B939" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B940" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B941" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B942" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B943" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B944" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B945" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B946" t="s">
-        <v>842</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
-        <v>943</v>
+        <v>941</v>
+      </c>
+      <c r="B947" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
-        <v>944</v>
+        <v>942</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
-        <v>945</v>
+        <v>943</v>
+      </c>
+      <c r="B949" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
-        <v>946</v>
+        <v>944</v>
+      </c>
+      <c r="B950" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
-        <v>947</v>
+        <v>945</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
-        <v>948</v>
+        <v>946</v>
+      </c>
+      <c r="B952" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
-        <v>949</v>
+        <v>947</v>
+      </c>
+      <c r="B953" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
-        <v>950</v>
+        <v>948</v>
+      </c>
+      <c r="B954" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
-        <v>951</v>
+        <v>949</v>
+      </c>
+      <c r="B955" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
-        <v>952</v>
+        <v>950</v>
+      </c>
+      <c r="B956" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
-        <v>953</v>
+        <v>951</v>
+      </c>
+      <c r="B957" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
-        <v>954</v>
+        <v>952</v>
+      </c>
+      <c r="B958" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
-        <v>955</v>
+        <v>953</v>
+      </c>
+      <c r="B959" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
+        <v>954</v>
+      </c>
+      <c r="B960" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>955</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A961" t="s">
+      <c r="B962" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A962" t="s">
+      <c r="B963" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A963" t="s">
+      <c r="B964" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A964" t="s">
+      <c r="B965" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A965" t="s">
+      <c r="B966" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A966" t="s">
+      <c r="B967" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A967" t="s">
+      <c r="B968" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A968" t="s">
+      <c r="B969" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A969" t="s">
+      <c r="B970" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A970" t="s">
+      <c r="B971" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A971" t="s">
+      <c r="B972" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A972" t="s">
+      <c r="B973" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A973" t="s">
+      <c r="B974" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A974" t="s">
+      <c r="B975" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A975" t="s">
+      <c r="B976" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A976" t="s">
+      <c r="B977" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A977" t="s">
+      <c r="B978" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A978" t="s">
+      <c r="B979" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A979" t="s">
+      <c r="B980" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A980" t="s">
+      <c r="B981" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A981" t="s">
+      <c r="B982" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A982" t="s">
+      <c r="B983" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A983" t="s">
+      <c r="B984" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A984" t="s">
+      <c r="B985" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A985" t="s">
+      <c r="B986" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A986" t="s">
+      <c r="B987" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A987" t="s">
+      <c r="B988" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A988" t="s">
+      <c r="B989" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A989" t="s">
+      <c r="B990" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A990" t="s">
+      <c r="B991" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A991" t="s">
+      <c r="B992" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A992" t="s">
+      <c r="B993" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A993" t="s">
+      <c r="B994" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A994" t="s">
+      <c r="B995" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A995" t="s">
+      <c r="B996" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A996" t="s">
+      <c r="B997" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A997" t="s">
+      <c r="B998" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A998" t="s">
+      <c r="B999" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A999" t="s">
+      <c r="B1000" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1000" t="s">
+      <c r="B1001" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1002" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1001" t="s">
+      <c r="B1002" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1002" t="s">
+      <c r="B1003" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1004" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1003" t="s">
+      <c r="B1004" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1004" t="s">
+      <c r="B1005" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1005" t="s">
+      <c r="B1006" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1007" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1006" t="s">
+      <c r="B1007" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1007" t="s">
+      <c r="B1008" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1009" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1008" t="s">
+      <c r="B1009" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1010" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1009" t="s">
+      <c r="B1010" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1010" t="s">
+      <c r="B1011" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1012" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1011" t="s">
+      <c r="B1012" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1013" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1012" t="s">
+      <c r="B1013" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1014" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1013" t="s">
+      <c r="B1014" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1015" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1014" t="s">
+      <c r="B1015" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1015" t="s">
+      <c r="B1016" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1017" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1016" t="s">
+      <c r="B1017" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1018" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1017" t="s">
+      <c r="B1018" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1019" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1018" t="s">
+      <c r="B1019" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1020" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1019" t="s">
+      <c r="B1020" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1021" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1020" t="s">
+      <c r="B1021" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1022" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1021" t="s">
+      <c r="B1022" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1023" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1022" t="s">
+      <c r="B1023" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1023" t="s">
+      <c r="B1024" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1024" t="s">
+      <c r="B1025" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1025" t="s">
+      <c r="B1026" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1027" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1026" t="s">
+      <c r="B1027" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1027" t="s">
+      <c r="B1028" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1028" t="s">
+      <c r="B1029" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1029" t="s">
+      <c r="B1030" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1030" t="s">
+      <c r="B1031" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1032" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="1031" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1031" t="s">
+      <c r="B1032" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="1032" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1032" t="s">
+      <c r="B1033" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1034" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="1033" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1033" t="s">
+      <c r="B1034" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1035" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="1034" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1034" t="s">
+      <c r="B1035" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1036" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="1035" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1035" t="s">
+      <c r="B1036" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1037" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="1036" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1036" t="s">
+      <c r="B1037" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1038" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="1037" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1037" t="s">
+      <c r="B1038" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
         <v>1033</v>
       </c>
-    </row>
-    <row r="1038" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1038" t="s">
+      <c r="B1039" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
         <v>1034</v>
       </c>
-    </row>
-    <row r="1039" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1039" t="s">
+      <c r="B1040" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="1040" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1040" t="s">
+      <c r="B1041" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1041" t="s">
+      <c r="B1042" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
         <v>1037</v>
       </c>
-    </row>
-    <row r="1042" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1042" t="s">
+      <c r="B1043" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="1043" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1043" t="s">
+      <c r="B1044" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
         <v>1039</v>
       </c>
-    </row>
-    <row r="1044" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1044" t="s">
+      <c r="B1045" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="1045" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1045" t="s">
+      <c r="B1046" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
         <v>1041</v>
       </c>
-    </row>
-    <row r="1046" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1046" t="s">
+      <c r="B1047" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="1048" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1048" t="s">
+      <c r="B1048" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
         <v>1043</v>
       </c>
-    </row>
-    <row r="1049" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1049" t="s">
+      <c r="B1049" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="1050" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1050" t="s">
+      <c r="B1050" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="1051" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1051" t="s">
+      <c r="B1051" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="1052" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1052" t="s">
+      <c r="B1052" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="1053" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1053" t="s">
+      <c r="B1053" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="1054" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1054" t="s">
+      <c r="B1054" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
         <v>1049</v>
       </c>
-    </row>
-    <row r="1055" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1055" t="s">
+      <c r="B1055" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="1056" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1056" t="s">
+      <c r="B1056" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
         <v>1051</v>
       </c>
-    </row>
-    <row r="1057" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1057" t="s">
+      <c r="B1057" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="1058" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1058" t="s">
+      <c r="B1058" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="1059" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1059" t="s">
+      <c r="B1059" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="1060" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1060" t="s">
+      <c r="B1060" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1061" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="1061" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1061" t="s">
+      <c r="B1061" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1062" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="1062" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1062" t="s">
+      <c r="B1062" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1063" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="1063" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1063" t="s">
+      <c r="B1063" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1064" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="1064" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1064" t="s">
+      <c r="B1064" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1065" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="1065" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1065" t="s">
+      <c r="B1065" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1066" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="1066" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1066" t="s">
+      <c r="B1066" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1067" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="1067" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1067" t="s">
+      <c r="B1067" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1068" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="1068" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1068" t="s">
+      <c r="B1068" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1069" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="1069" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1069" t="s">
+      <c r="B1069" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1070" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="1070" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1070" t="s">
+      <c r="B1070" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1071" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="1071" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1071" t="s">
+      <c r="B1071" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1072" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="1072" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1072" t="s">
+      <c r="B1072" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1073" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="1073" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1073" t="s">
+      <c r="B1073" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1074" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="1074" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1074" t="s">
+      <c r="B1074" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1075" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="1075" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1075" t="s">
+      <c r="B1075" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1076" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="1076" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1076" t="s">
+      <c r="B1076" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1077" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="1077" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1077" t="s">
+      <c r="B1077" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1078" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="1078" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1078" t="s">
+      <c r="B1078" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1079" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="1079" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1079" t="s">
+      <c r="B1079" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1080" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="1080" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1080" t="s">
+      <c r="B1080" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1081" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="1081" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1081" t="s">
+      <c r="B1081" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1082" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="1082" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1082" t="s">
+      <c r="B1082" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1083" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="1083" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1083" t="s">
+      <c r="B1083" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1084" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="1084" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1084" t="s">
+      <c r="B1084" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1085" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="1085" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1085" t="s">
+      <c r="B1085" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1086" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="1086" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1086" t="s">
+      <c r="B1086" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1087" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="1087" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1087" t="s">
+      <c r="B1087" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1088" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="1088" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1088" t="s">
+      <c r="B1088" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1089" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1089" t="s">
+      <c r="B1089" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1090" t="s">
         <v>1084</v>
       </c>
-    </row>
-    <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1090" t="s">
+      <c r="B1090" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1091" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1091" t="s">
+      <c r="B1091" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1092" t="s">
         <v>1086</v>
       </c>
-    </row>
-    <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1092" t="s">
+      <c r="B1092" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1093" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1093" t="s">
+      <c r="B1093" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1094" t="s">
         <v>1088</v>
       </c>
-    </row>
-    <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1094" t="s">
+      <c r="B1094" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1095" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1095" t="s">
+      <c r="B1095" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1096" t="s">
         <v>1090</v>
       </c>
-    </row>
-    <row r="1096" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1096" t="s">
+      <c r="B1096" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1097" t="s">
         <v>1091</v>
       </c>
-    </row>
-    <row r="1097" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1097" t="s">
+      <c r="B1097" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1098" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="1098" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1098" t="s">
+      <c r="B1098" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1099" t="s">
         <v>1093</v>
       </c>
-    </row>
-    <row r="1099" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1099" t="s">
+      <c r="B1099" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1100" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="1100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1100" t="s">
+      <c r="B1100" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1101" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="1101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1101" t="s">
+      <c r="B1101" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1102" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="1102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1102" t="s">
+      <c r="B1102" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1103" t="s">
         <v>1097</v>
       </c>
-    </row>
-    <row r="1103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1103" t="s">
+      <c r="B1103" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1104" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="1104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1104" t="s">
+      <c r="B1104" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1105" t="s">
         <v>1099</v>
       </c>
-    </row>
-    <row r="1105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1105" t="s">
+      <c r="B1105" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1106" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="1106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1106" t="s">
+      <c r="B1106" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1107" t="s">
         <v>1101</v>
       </c>
-    </row>
-    <row r="1107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1107" t="s">
+      <c r="B1107" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1108" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="1108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1108" t="s">
+      <c r="B1108" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1109" t="s">
         <v>1103</v>
       </c>
-    </row>
-    <row r="1109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1109" t="s">
+      <c r="B1109" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1110" t="s">
         <v>1104</v>
       </c>
-    </row>
-    <row r="1110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1110" t="s">
+      <c r="B1110" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1111" t="s">
         <v>1105</v>
       </c>
-    </row>
-    <row r="1111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1111" t="s">
+      <c r="B1111" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1112" t="s">
         <v>1106</v>
       </c>
-    </row>
-    <row r="1112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1112" t="s">
+      <c r="B1112" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1113" t="s">
         <v>1107</v>
       </c>
-    </row>
-    <row r="1113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1113" t="s">
+      <c r="B1113" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1114" t="s">
         <v>1108</v>
       </c>
-    </row>
-    <row r="1114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1114" t="s">
+      <c r="B1114" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1115" t="s">
         <v>1109</v>
       </c>
-    </row>
-    <row r="1115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1115" t="s">
+      <c r="B1115" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1116" t="s">
         <v>1110</v>
       </c>
-    </row>
-    <row r="1116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1116" t="s">
+      <c r="B1116" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1117" t="s">
         <v>1111</v>
       </c>
-    </row>
-    <row r="1117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1117" t="s">
+      <c r="B1117" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1118" t="s">
         <v>1112</v>
       </c>
-    </row>
-    <row r="1118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1118" t="s">
+      <c r="B1118" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1119" t="s">
         <v>1113</v>
       </c>
-    </row>
-    <row r="1119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1119" t="s">
+      <c r="B1119" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1120" t="s">
         <v>1114</v>
       </c>
-    </row>
-    <row r="1120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1120" t="s">
+      <c r="B1120" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1121" t="s">
         <v>1115</v>
       </c>
-    </row>
-    <row r="1121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1121" t="s">
+      <c r="B1121" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1122" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="1122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1122" t="s">
+      <c r="B1122" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1123" t="s">
         <v>1117</v>
       </c>
-    </row>
-    <row r="1123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1123" t="s">
+      <c r="B1123" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1124" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="1124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1124" t="s">
+      <c r="B1124" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1125" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="1125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1125" t="s">
+      <c r="B1125" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1126" t="s">
         <v>1120</v>
       </c>
-    </row>
-    <row r="1126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1126" t="s">
+      <c r="B1126" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1127" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="1127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1127" t="s">
+      <c r="B1127" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1128" t="s">
         <v>1122</v>
       </c>
-    </row>
-    <row r="1128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1128" t="s">
+      <c r="B1128" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1129" t="s">
         <v>1123</v>
       </c>
-    </row>
-    <row r="1129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1129" t="s">
+      <c r="B1129" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1130" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="1130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1130" t="s">
+      <c r="B1130" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1131" t="s">
         <v>1125</v>
       </c>
-    </row>
-    <row r="1131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1131" t="s">
+      <c r="B1131" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1132" t="s">
         <v>1126</v>
       </c>
-    </row>
-    <row r="1132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1132" t="s">
+      <c r="B1132" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1133" t="s">
         <v>1127</v>
       </c>
-    </row>
-    <row r="1133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1133" t="s">
+      <c r="B1133" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1134" t="s">
         <v>1128</v>
       </c>
-    </row>
-    <row r="1134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1134" t="s">
+      <c r="B1134" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1135" t="s">
         <v>1129</v>
       </c>
-    </row>
-    <row r="1135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1135" t="s">
+      <c r="B1135" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1136" t="s">
         <v>1130</v>
       </c>
-    </row>
-    <row r="1136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1136" t="s">
+      <c r="B1136" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1137" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1137" t="s">
+      <c r="B1137" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1138" t="s">
         <v>1132</v>
       </c>
-    </row>
-    <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1138" t="s">
+      <c r="B1138" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1139" t="s">
         <v>1133</v>
       </c>
-    </row>
-    <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1139" t="s">
+      <c r="B1139" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1140" t="s">
         <v>1134</v>
       </c>
-    </row>
-    <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1140" t="s">
+      <c r="B1140" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1141" t="s">
         <v>1135</v>
       </c>
-    </row>
-    <row r="1141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1141" t="s">
+      <c r="B1141" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1142" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1142" t="s">
+      <c r="B1142" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1143" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1143" t="s">
+      <c r="B1143" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1144" t="s">
         <v>1138</v>
       </c>
-    </row>
-    <row r="1144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1144" t="s">
+      <c r="B1144" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1145" t="s">
         <v>1139</v>
       </c>
-    </row>
-    <row r="1145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1145" t="s">
+      <c r="B1145" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1146" t="s">
         <v>1140</v>
       </c>
-    </row>
-    <row r="1146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1146" t="s">
+      <c r="B1146" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1147" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="1147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1147" t="s">
+      <c r="B1147" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1148" t="s">
         <v>1142</v>
       </c>
-    </row>
-    <row r="1149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1148" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1149" t="s">
         <v>1143</v>
       </c>
-    </row>
-    <row r="1150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1149" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1150" t="s">
         <v>1144</v>
       </c>
-    </row>
-    <row r="1151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1150" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1151" t="s">
         <v>1145</v>
       </c>
-    </row>
-    <row r="1152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1151" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1152" t="s">
         <v>1146</v>
       </c>
-    </row>
-    <row r="1153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1152" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1153" t="s">
         <v>1147</v>
       </c>
-    </row>
-    <row r="1154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1153" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1154" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="1155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1154" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1155" t="s">
         <v>1149</v>
       </c>
-    </row>
-    <row r="1156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1155" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1156" t="s">
         <v>1150</v>
       </c>
-    </row>
-    <row r="1157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1156" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1157" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="1158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1157" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1158" t="s">
         <v>1152</v>
       </c>
-    </row>
-    <row r="1159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1158" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1159" t="s">
         <v>1153</v>
       </c>
-    </row>
-    <row r="1160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1159" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1160" t="s">
         <v>1154</v>
       </c>
-    </row>
-    <row r="1161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1160" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1161" t="s">
         <v>1155</v>
       </c>
-    </row>
-    <row r="1162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1161" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1162" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="1163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1162" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1163" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="1164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1163" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1164" t="s">
         <v>1158</v>
       </c>
-    </row>
-    <row r="1165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1164" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1165" t="s">
         <v>1159</v>
       </c>
-    </row>
-    <row r="1166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1165" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1166" t="s">
         <v>1160</v>
       </c>
-    </row>
-    <row r="1167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1166" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1167" t="s">
         <v>1161</v>
       </c>
-    </row>
-    <row r="1168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1167" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1168" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="1169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1168" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1169" t="s">
         <v>1163</v>
       </c>
-    </row>
-    <row r="1170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1169" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1170" t="s">
         <v>1164</v>
       </c>
-    </row>
-    <row r="1171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1170" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1171" t="s">
         <v>1165</v>
       </c>
-    </row>
-    <row r="1172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1171" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1172" t="s">
         <v>1166</v>
       </c>
-    </row>
-    <row r="1173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1172" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1173" t="s">
         <v>1167</v>
       </c>
-    </row>
-    <row r="1174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1173" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1174" t="s">
         <v>1168</v>
       </c>
-    </row>
-    <row r="1175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1174" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1175" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="1176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1175" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1176" t="s">
         <v>1170</v>
       </c>
-    </row>
-    <row r="1177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1176" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1177" t="s">
         <v>1171</v>
       </c>
-    </row>
-    <row r="1178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1177" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1178" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="1179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1178" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1179" t="s">
         <v>1173</v>
       </c>
-    </row>
-    <row r="1180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1179" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1180" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="1181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1180" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1181" t="s">
         <v>1175</v>
       </c>
-    </row>
-    <row r="1182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1181" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1182" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="1183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1182" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1183" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="1184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1183" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1184" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="1185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1184" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1185" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="1186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1185" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1186" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="1187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1186" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1187" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="1188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1187" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1188" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="1189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1188" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1189" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="1190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1189" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1190" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="1191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1190" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1191" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="1192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1191" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1192" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="1193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1192" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1193" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="1194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1193" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1194" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="1195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1194" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1195" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="1196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1195" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1196" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="1197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1196" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1197" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="1198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1197" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1198" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="1199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1198" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1199" t="s">
         <v>1193</v>
       </c>
-    </row>
-    <row r="1200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1199" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1200" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="1201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1200" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1201" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="1202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1201" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1202" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="1203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1202" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1203" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="1204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1203" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1204" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="1205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1204" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1205" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="1206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1205" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1206" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="1207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1206" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1207" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="1208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1207" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1208" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="1209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1208" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1209" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="1210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1209" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1210" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="1211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1210" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1211" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="1212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1211" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1212" t="s">
         <v>1206</v>
       </c>
-    </row>
-    <row r="1213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1212" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1213" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="1214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1213" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1214" t="s">
         <v>1208</v>
       </c>
-    </row>
-    <row r="1215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1214" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1215" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="1216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1215" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1216" t="s">
         <v>1210</v>
       </c>
-    </row>
-    <row r="1217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1216" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1217" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="1218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1217" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1218" t="s">
         <v>1212</v>
       </c>
-    </row>
-    <row r="1219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1218" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1219" t="s">
         <v>1213</v>
       </c>
-    </row>
-    <row r="1220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1219" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1220" t="s">
         <v>1214</v>
       </c>
-    </row>
-    <row r="1221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1220" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1221" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="1222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1221" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1222" t="s">
         <v>1216</v>
       </c>
-    </row>
-    <row r="1223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1222" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1223" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="1224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1223" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1224" t="s">
         <v>1218</v>
       </c>
-    </row>
-    <row r="1225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1224" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1225" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="1226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1225" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1226" t="s">
         <v>1220</v>
       </c>
-    </row>
-    <row r="1227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1226" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1227" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="1228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1227" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1228" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1229" t="s">
         <v>1222</v>
       </c>
-    </row>
-    <row r="1229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1229" t="s">
+      <c r="B1229" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1230" t="s">
         <v>1223</v>
       </c>
-    </row>
-    <row r="1230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1230" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="1231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1230" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1231" t="s">
         <v>1224</v>
       </c>
-    </row>
-    <row r="1232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1231" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1232" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="1233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1232" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1233" t="s">
         <v>1226</v>
       </c>
-    </row>
-    <row r="1234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1233" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1234" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="1235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1234" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1235" t="s">
         <v>1228</v>
       </c>
-    </row>
-    <row r="1236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1235" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1236" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="1237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1236" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1237" t="s">
         <v>1230</v>
       </c>
-    </row>
-    <row r="1238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1237" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1238" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="1239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1238" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1239" t="s">
         <v>1232</v>
       </c>
-    </row>
-    <row r="1240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1239" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1240" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="1241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1240" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1241" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1242" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="1242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1242" t="s">
+      <c r="B1242" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1243" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="1243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1243" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="1244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1243" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1244" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="1245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1244" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1245" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="1246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1245" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1246" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="1247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1247" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="1248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1248" t="s">
-        <v>1240</v>
+      <c r="B1246" t="s">
+        <v>1244</v>
       </c>
     </row>
   </sheetData>
